--- a/Python/output/case-study/FAresults.xlsx
+++ b/Python/output/case-study/FAresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2FAD00E-C86F-7D4A-8D6B-F0D9D4FF4553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34E42F2-2566-F04C-B74C-5FE9079A827B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{58B80417-2D59-7148-BA4C-91422DBBAF31}"/>
+    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{2400799D-856D-B74D-9107-1EE8ABCFDE9C}"/>
   </bookViews>
   <sheets>
     <sheet name="FAresults" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6489AC69-309B-1A4F-A0B0-111E0E857129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747F39CD-DFF7-E845-8DCE-6F05353578EC}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1286641.3119999999</v>
+        <v>2028510.76</v>
       </c>
       <c r="K7">
-        <v>246476.98509999999</v>
+        <v>225674.6796</v>
       </c>
       <c r="L7">
-        <v>88.866919039999999</v>
+        <v>51.587923289999999</v>
       </c>
       <c r="M7">
-        <v>6.4484529500000001</v>
+        <v>4.8517398829999996</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1241,16 +1241,16 @@
         <v>2</v>
       </c>
       <c r="J8">
-        <v>1593194.987</v>
+        <v>2254575.0350000001</v>
       </c>
       <c r="K8">
-        <v>247026.3523</v>
+        <v>201439.82380000001</v>
       </c>
       <c r="L8">
-        <v>45.058105230000002</v>
+        <v>61.105124709999998</v>
       </c>
       <c r="M8">
-        <v>5.3927528860000002</v>
+        <v>5.1388790609999999</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1282,16 +1282,16 @@
         <v>2</v>
       </c>
       <c r="J9">
-        <v>1785052.449</v>
+        <v>2561074.7990000001</v>
       </c>
       <c r="K9">
-        <v>248791.47080000001</v>
+        <v>277010.23420000001</v>
       </c>
       <c r="L9">
-        <v>43.454174999999999</v>
+        <v>57.654860970000001</v>
       </c>
       <c r="M9">
-        <v>5.2613148689999996</v>
+        <v>5.1106958389999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1323,16 +1323,16 @@
         <v>2</v>
       </c>
       <c r="J10">
-        <v>1921413.6429999999</v>
+        <v>2607120.4449999998</v>
       </c>
       <c r="K10">
-        <v>280947.62660000002</v>
+        <v>271368.29509999999</v>
       </c>
       <c r="L10">
-        <v>54.838530059999997</v>
+        <v>64.025232790000004</v>
       </c>
       <c r="M10">
-        <v>5.6644949909999998</v>
+        <v>5.2040991779999999</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1364,16 +1364,16 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>1905184.3840000001</v>
+        <v>2614414.0809999998</v>
       </c>
       <c r="K11">
-        <v>283664.26740000001</v>
+        <v>270967.21139999997</v>
       </c>
       <c r="L11">
-        <v>39.627182959999999</v>
+        <v>79.715994120000005</v>
       </c>
       <c r="M11">
-        <v>5.169566154</v>
+        <v>5.4726519580000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1487,16 +1487,16 @@
         <v>3</v>
       </c>
       <c r="J14">
-        <v>2232701.648</v>
+        <v>2794002.6189999999</v>
       </c>
       <c r="K14">
-        <v>303300.08059999999</v>
+        <v>238576.8573</v>
       </c>
       <c r="L14">
-        <v>39.487915039999997</v>
+        <v>68.571845289999999</v>
       </c>
       <c r="M14">
-        <v>5.2626979350000003</v>
+        <v>5.3827500339999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1528,16 +1528,16 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>2387104.3620000002</v>
+        <v>2989270.048</v>
       </c>
       <c r="K15">
-        <v>283788.88260000001</v>
+        <v>227561.52559999999</v>
       </c>
       <c r="L15">
-        <v>35.17791939</v>
+        <v>30.80539203</v>
       </c>
       <c r="M15">
-        <v>5.0530397889999996</v>
+        <v>4.2977740759999996</v>
       </c>
     </row>
   </sheetData>
